--- a/原案.xlsx
+++ b/原案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\佐藤航介\Desktop\AttackKing2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0245514D-B3A0-407D-AE19-1AE893B81755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F491CC1-BAFE-4B9F-9253-CD9351062698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>プレイヤーパラメータ</t>
     <phoneticPr fontId="1"/>
@@ -92,6 +92,26 @@
   </si>
   <si>
     <t>アドパラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルパラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>move</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N13"/>
+  <dimension ref="B2:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="R3" sqref="R3:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:18">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,120 +468,144 @@
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:14">
+      <c r="R2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:14">
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:14">
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>4</v>
       </c>
       <c r="N5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:14">
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
       </c>
       <c r="N6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:18">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:18">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:18">
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:18">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:18">
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:18">
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:14">
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
       <c r="B13" t="s">
         <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/原案.xlsx
+++ b/原案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\佐藤航介\Desktop\AttackKing2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F491CC1-BAFE-4B9F-9253-CD9351062698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C402B7-5505-4CB9-A8FD-AD45DA178A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>プレイヤーパラメータ</t>
     <phoneticPr fontId="1"/>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>move</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weapon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp_regene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mp_regene</t>
+  </si>
+  <si>
+    <t>mp_regene</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -447,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R13"/>
+  <dimension ref="B2:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -508,7 +523,7 @@
     </row>
     <row r="5" spans="2:18">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -525,7 +540,7 @@
     </row>
     <row r="6" spans="2:18">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -539,10 +554,10 @@
     </row>
     <row r="7" spans="2:18">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s">
         <v>7</v>
@@ -550,10 +565,10 @@
     </row>
     <row r="8" spans="2:18">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
         <v>8</v>
@@ -561,10 +576,10 @@
     </row>
     <row r="9" spans="2:18">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
         <v>3</v>
@@ -572,10 +587,10 @@
     </row>
     <row r="10" spans="2:18">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N10" t="s">
         <v>6</v>
@@ -583,10 +598,10 @@
     </row>
     <row r="11" spans="2:18">
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N11" t="s">
         <v>13</v>
@@ -594,18 +609,37 @@
     </row>
     <row r="12" spans="2:18">
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" t="s">
         <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/原案.xlsx
+++ b/原案.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\佐藤航介\Desktop\AttackKing2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C402B7-5505-4CB9-A8FD-AD45DA178A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A846D4B-33CE-4383-907E-342D4AEBD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="base_parameter" sheetId="1" r:id="rId1"/>
+    <sheet name="weapon" sheetId="2" r:id="rId2"/>
+    <sheet name="setting" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>プレイヤーパラメータ</t>
     <phoneticPr fontId="1"/>
@@ -127,6 +129,227 @@
   </si>
   <si>
     <t>mp_regene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接</t>
+    <rPh sb="0" eb="2">
+      <t>キンセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショートソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショートボウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイアーボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファルシオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクスカリバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソードブレイカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロングソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <rPh sb="0" eb="1">
+      <t>カタナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村雨</t>
+    <rPh sb="0" eb="2">
+      <t>ムラサメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虎徹</t>
+    <rPh sb="0" eb="2">
+      <t>コテツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペンタグラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイアーボウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロングボウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金棒</t>
+    <rPh sb="0" eb="2">
+      <t>カナボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールデンソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランタバス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラッドソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マークスマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スカルスタッフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒールロッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バインドスタッフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シシオウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クルセイダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラックソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイアースタッフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スラッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しい武器の登録方法</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>トウロクホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空のオブジェクトを作り、創りたい武器の名前にするex(format_ShortSord)</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>format_weaponスクリプトをアタッチしてステータスを設定する</t>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン内にあるNowDropWeaponsのインスペクターに作成したオブジェクトをセット</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -464,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -647,4 +870,238 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACA564A-1B9D-4161-BA53-4023A87E5524}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:R4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB4DF3F-5517-49FB-8050-392930ADBD7C}">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>